--- a/Pénzügyi kimutatások/2024 Január pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2024 Január pénzügyi kimutatás.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4989BAF-E450-4B68-8468-56C60A9AEE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B7443-C729-41E4-A805-41691572A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7DAC934F-1247-4DC3-95AB-71A3C471D417}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>POCO</t>
+  </si>
+  <si>
+    <t>bufé hambi</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -318,6 +327,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A549D7-E2F9-4428-AB46-71B20E2292ED}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,7 +1006,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="16">
         <f>SUM(C28:C32)</f>
-        <v>6500</v>
+        <v>8930</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -1006,7 +1018,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>11630</v>
+        <v>9200</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1021,7 +1033,9 @@
       <c r="C28" s="19">
         <v>6500</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>2700</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
@@ -1029,9 +1043,15 @@
       <c r="A29" s="17">
         <v>45321</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1590</v>
+      </c>
+      <c r="D29" s="12">
+        <v>6500</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
@@ -1039,9 +1059,15 @@
       <c r="A30" s="17">
         <v>45322</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="19">
+        <v>840</v>
+      </c>
+      <c r="D30" s="25">
+        <v>9200</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
